--- a/Informe_Logs.xlsx
+++ b/Informe_Logs.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,48 +408,378 @@
         <v>fechaDeIngreso</v>
       </c>
       <c r="B1" t="str">
+        <v>usuario</v>
+      </c>
+      <c r="C1" t="str">
         <v>tipo</v>
-      </c>
-      <c r="C1" t="str">
-        <v>usuario</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>44742.94149869213</v>
+        <v>44776.67203826389</v>
       </c>
       <c r="B2" t="str">
-        <v>administrador</v>
+        <v>gabysegault@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>vegalan@gmail.com</v>
+        <v>administrador</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>44762.64432313658</v>
+        <v>44777.51613148148</v>
       </c>
       <c r="B3" t="str">
-        <v>administrador</v>
+        <v>aleb2017@gmail.com</v>
       </c>
       <c r="C3" t="str">
-        <v>vegalan@gmail.com</v>
+        <v>administrador</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
+        <v>44777.0295937037</v>
+      </c>
+      <c r="B4" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>44774.55519133102</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vegalan@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>44777.656434131946</v>
+      </c>
+      <c r="B6" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>44742.94149869213</v>
+      </c>
+      <c r="B7" t="str">
+        <v>vegalan@gmail.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>44776.67955782407</v>
+      </c>
+      <c r="B8" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>44762.64432313658</v>
+      </c>
+      <c r="B9" t="str">
+        <v>vegalan@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>44777.03195798611</v>
+      </c>
+      <c r="B10" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>44775.98215591435</v>
+      </c>
+      <c r="B11" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>44777.85795037037</v>
+      </c>
+      <c r="B12" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>44777.49977086805</v>
+      </c>
+      <c r="B13" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>44777.01847865741</v>
+      </c>
+      <c r="B14" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>44777.65473527778</v>
+      </c>
+      <c r="B15" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>44777.84914628472</v>
+      </c>
+      <c r="B16" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>44777.85435043981</v>
+      </c>
+      <c r="B17" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
         <v>44770.87489506944</v>
       </c>
-      <c r="B4" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="C4" t="str">
-        <v>gabysegault@gmail.com</v>
+      <c r="B18" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>44771.013485208336</v>
+      </c>
+      <c r="B19" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>44776.57703357639</v>
+      </c>
+      <c r="B20" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>44777.02538293981</v>
+      </c>
+      <c r="B21" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>44776.68043422454</v>
+      </c>
+      <c r="B22" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>44777.006054791666</v>
+      </c>
+      <c r="B23" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>44777.01361505787</v>
+      </c>
+      <c r="B24" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>44777.50984106481</v>
+      </c>
+      <c r="B25" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>44776.58573853009</v>
+      </c>
+      <c r="B26" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>44776.90088400463</v>
+      </c>
+      <c r="B27" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>44777.86974707176</v>
+      </c>
+      <c r="B28" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>44776.596368252314</v>
+      </c>
+      <c r="B29" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>44777.66194885417</v>
+      </c>
+      <c r="B30" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>44777.01166440972</v>
+      </c>
+      <c r="B31" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>44776.944025717596</v>
+      </c>
+      <c r="B32" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>44777.509158229164</v>
+      </c>
+      <c r="B33" t="str">
+        <v>aleb2017@gmail.com</v>
+      </c>
+      <c r="C33" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>44776.575406296295</v>
+      </c>
+      <c r="B34" t="str">
+        <v>gabysegault@gmail.com</v>
+      </c>
+      <c r="C34" t="str">
+        <v>administrador</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Informe_Logs.xlsx
+++ b/Informe_Logs.xlsx
@@ -398,388 +398,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>fechaDeIngreso</v>
+        <v>tipo</v>
       </c>
       <c r="B1" t="str">
         <v>usuario</v>
       </c>
       <c r="C1" t="str">
-        <v>tipo</v>
+        <v>fechaDeIngreso</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>44776.67203826389</v>
+      <c r="A2" t="str">
+        <v>paciente</v>
       </c>
       <c r="B2" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C2" t="str">
-        <v>administrador</v>
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44845.92441402778</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>44777.51613148148</v>
+      <c r="A3" t="str">
+        <v>especialista</v>
       </c>
       <c r="B3" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>administrador</v>
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44848.61211938658</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>44777.0295937037</v>
+      <c r="A4" t="str">
+        <v>administrador</v>
       </c>
       <c r="B4" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C4" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44848.5987977662</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>44774.55519133102</v>
+      <c r="A5" t="str">
+        <v>administrador</v>
       </c>
       <c r="B5" t="str">
-        <v>vegalan@gmail.com</v>
-      </c>
-      <c r="C5" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44843.85493444445</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>44777.656434131946</v>
+      <c r="A6" t="str">
+        <v>administrador</v>
       </c>
       <c r="B6" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C6" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44843.81922549768</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>44742.94149869213</v>
+      <c r="A7" t="str">
+        <v>administrador</v>
       </c>
       <c r="B7" t="str">
-        <v>vegalan@gmail.com</v>
-      </c>
-      <c r="C7" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44843.84836430556</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>44776.67955782407</v>
+      <c r="A8" t="str">
+        <v>paciente</v>
       </c>
       <c r="B8" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C8" t="str">
-        <v>administrador</v>
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44848.61369655093</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>44762.64432313658</v>
+      <c r="A9" t="str">
+        <v>paciente</v>
       </c>
       <c r="B9" t="str">
-        <v>vegalan@gmail.com</v>
-      </c>
-      <c r="C9" t="str">
-        <v>administrador</v>
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44843.86212715278</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>44777.03195798611</v>
+      <c r="A10" t="str">
+        <v>especialista</v>
       </c>
       <c r="B10" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C10" t="str">
-        <v>administrador</v>
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44843.84484302083</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>44775.98215591435</v>
+      <c r="A11" t="str">
+        <v>administrador</v>
       </c>
       <c r="B11" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C11" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44844.960719675924</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>44777.85795037037</v>
+      <c r="A12" t="str">
+        <v>paciente</v>
       </c>
       <c r="B12" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C12" t="str">
-        <v>administrador</v>
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44844.96010170139</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>44777.49977086805</v>
+      <c r="A13" t="str">
+        <v>especialista</v>
       </c>
       <c r="B13" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C13" t="str">
-        <v>administrador</v>
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44848.61460537037</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>44777.01847865741</v>
+      <c r="A14" t="str">
+        <v>administrador</v>
       </c>
       <c r="B14" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C14" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44844.959875555556</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>44777.65473527778</v>
+      <c r="A15" t="str">
+        <v>administrador</v>
       </c>
       <c r="B15" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C15" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44845.028311967595</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>44777.84914628472</v>
+      <c r="A16" t="str">
+        <v>administrador</v>
       </c>
       <c r="B16" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C16" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44843.85371481482</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>44777.85435043981</v>
+      <c r="A17" t="str">
+        <v>especialista</v>
       </c>
       <c r="B17" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C17" t="str">
-        <v>administrador</v>
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44848.61517690972</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>44770.87489506944</v>
+      <c r="A18" t="str">
+        <v>paciente</v>
       </c>
       <c r="B18" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C18" t="str">
-        <v>administrador</v>
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44844.95625930555</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>44771.013485208336</v>
+      <c r="A19" t="str">
+        <v>paciente</v>
       </c>
       <c r="B19" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C19" t="str">
-        <v>administrador</v>
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44843.844416342596</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>44776.57703357639</v>
+      <c r="A20" t="str">
+        <v>administrador</v>
       </c>
       <c r="B20" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C20" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44848.616397777776</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>44777.02538293981</v>
+      <c r="A21" t="str">
+        <v>administrador</v>
       </c>
       <c r="B21" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C21" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44845.0322565625</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>44776.68043422454</v>
+      <c r="A22" t="str">
+        <v>administrador</v>
       </c>
       <c r="B22" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C22" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44844.95530311343</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>44777.006054791666</v>
+      <c r="A23" t="str">
+        <v>administrador</v>
       </c>
       <c r="B23" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C23" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44843.86385158565</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>44777.01361505787</v>
+      <c r="A24" t="str">
+        <v>administrador</v>
       </c>
       <c r="B24" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C24" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44848.61575341435</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>44777.50984106481</v>
+      <c r="A25" t="str">
+        <v>paciente</v>
       </c>
       <c r="B25" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C25" t="str">
-        <v>administrador</v>
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44848.61415739583</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>44776.58573853009</v>
+      <c r="A26" t="str">
+        <v>administrador</v>
       </c>
       <c r="B26" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C26" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44845.91524957176</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>44776.90088400463</v>
+      <c r="A27" t="str">
+        <v>administrador</v>
       </c>
       <c r="B27" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C27" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44848.59470472222</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>44777.86974707176</v>
+      <c r="A28" t="str">
+        <v>especialista</v>
       </c>
       <c r="B28" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C28" t="str">
-        <v>administrador</v>
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44843.85404803241</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>44776.596368252314</v>
+      <c r="A29" t="str">
+        <v>administrador</v>
       </c>
       <c r="B29" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C29" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44848.6054184375</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>44777.66194885417</v>
+      <c r="A30" t="str">
+        <v>paciente</v>
       </c>
       <c r="B30" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C30" t="str">
-        <v>administrador</v>
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44843.86182377315</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>44777.01166440972</v>
+      <c r="A31" t="str">
+        <v>administrador</v>
       </c>
       <c r="B31" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C31" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44845.91757747685</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>44776.944025717596</v>
+      <c r="A32" t="str">
+        <v>administrador</v>
       </c>
       <c r="B32" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C32" t="str">
-        <v>administrador</v>
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44848.60147271991</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>44777.509158229164</v>
+      <c r="A33" t="str">
+        <v>paciente</v>
       </c>
       <c r="B33" t="str">
-        <v>aleb2017@gmail.com</v>
-      </c>
-      <c r="C33" t="str">
-        <v>administrador</v>
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44843.865830104165</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>44776.575406296295</v>
+      <c r="A34" t="str">
+        <v>especialista</v>
       </c>
       <c r="B34" t="str">
-        <v>gabysegault@gmail.com</v>
-      </c>
-      <c r="C34" t="str">
-        <v>administrador</v>
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44848.61052375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>administrador</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44845.92175821759</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>paciente</v>
+      </c>
+      <c r="B36" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44848.613981504626</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>paciente</v>
+      </c>
+      <c r="B37" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44845.03332180555</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>especialista</v>
+      </c>
+      <c r="B38" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44848.6101018287</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>administrador</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44848.59651552083</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>administrador</v>
+      </c>
+      <c r="B40" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44848.60721465278</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Informe_Logs.xlsx
+++ b/Informe_Logs.xlsx
@@ -398,454 +398,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>tipo</v>
+        <v>fechaDeIngreso</v>
       </c>
       <c r="B1" t="str">
         <v>usuario</v>
       </c>
       <c r="C1" t="str">
-        <v>fechaDeIngreso</v>
+        <v>tipo</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>paciente</v>
+      <c r="A2" s="1">
+        <v>44858.937677662034</v>
       </c>
       <c r="B2" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>44858.93074923611</v>
+      </c>
+      <c r="B3" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>44845.92441402778</v>
+      </c>
+      <c r="B4" t="str">
         <v>bsantillan@gmail.com</v>
       </c>
-      <c r="C2" s="1">
-        <v>44845.92441402778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B3" t="str">
-        <v>achinsky@gmail.com</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44848.61211938658</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44848.5987977662</v>
+      <c r="C4" t="str">
+        <v>paciente</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>administrador</v>
+      <c r="A5" s="1">
+        <v>44872.01369633102</v>
       </c>
       <c r="B5" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44843.85493444445</v>
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>paciente</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>administrador</v>
+      <c r="A6" s="1">
+        <v>44872.55387834491</v>
       </c>
       <c r="B6" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44843.81922549768</v>
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>paciente</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>administrador</v>
+      <c r="A7" s="1">
+        <v>44871.93164890046</v>
       </c>
       <c r="B7" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44843.84836430556</v>
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>especialista</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>paciente</v>
+      <c r="A8" s="1">
+        <v>44852.89979422454</v>
       </c>
       <c r="B8" t="str">
         <v>valeriamatu@gmail.com</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>44866.982946145836</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>44866.97092829861</v>
+      </c>
+      <c r="B10" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>44856.02910900463</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>44848.61211938658</v>
+      </c>
+      <c r="B12" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>44848.5987977662</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>44875.93258700232</v>
+      </c>
+      <c r="B14" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>44843.85493444445</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>44866.98615280093</v>
+      </c>
+      <c r="B16" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>44865.90964841435</v>
+      </c>
+      <c r="B17" t="str">
+        <v>nancycottet@gmail.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>44862.92320153935</v>
+      </c>
+      <c r="B18" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>44853.67451042824</v>
+      </c>
+      <c r="B19" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>44858.94178902778</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>44858.93696865741</v>
+      </c>
+      <c r="B21" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>44852.809170381945</v>
+      </c>
+      <c r="B22" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>44856.029451435184</v>
+      </c>
+      <c r="B23" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>44866.97835690972</v>
+      </c>
+      <c r="B24" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>44861.91955320602</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>44852.70488974537</v>
+      </c>
+      <c r="B26" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>44865.605553587964</v>
+      </c>
+      <c r="B27" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>44856.05141273148</v>
+      </c>
+      <c r="B28" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>44843.81922549768</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>44854.92645172454</v>
+      </c>
+      <c r="B30" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>44843.84836430556</v>
+      </c>
+      <c r="B31" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>44872.55489219908</v>
+      </c>
+      <c r="B32" t="str">
+        <v>nancycottet@gmail.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
         <v>44848.61369655093</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B9" t="str">
+      <c r="B33" t="str">
         <v>valeriamatu@gmail.com</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C33" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>44866.98736010417</v>
+      </c>
+      <c r="B34" t="str">
+        <v>nancycottet@gmail.com</v>
+      </c>
+      <c r="C34" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>44854.930346203706</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C35" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>44856.031035405096</v>
+      </c>
+      <c r="B36" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C36" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>44852.72029420139</v>
+      </c>
+      <c r="B37" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>44866.97872111111</v>
+      </c>
+      <c r="B38" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C38" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
         <v>44843.86212715278</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B10" t="str">
-        <v>achinsky@gmail.com</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B39" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C39" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>44858.927458969905</v>
+      </c>
+      <c r="B40" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C40" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>44852.90613894676</v>
+      </c>
+      <c r="B41" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C41" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>44875.87870903935</v>
+      </c>
+      <c r="B42" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C42" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>44874.92505791667</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C43" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>44858.93837548611</v>
+      </c>
+      <c r="B44" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C44" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
         <v>44843.84484302083</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B11" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B45" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C45" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>44856.01885453704</v>
+      </c>
+      <c r="B46" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C46" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
         <v>44844.960719675924</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B12" t="str">
+      <c r="B47" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C47" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>44872.55097875</v>
+      </c>
+      <c r="B48" t="str">
         <v>valeriamatu@gmail.com</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C48" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>44858.93868526621</v>
+      </c>
+      <c r="B49" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C49" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
         <v>44844.96010170139</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B13" t="str">
-        <v>achinsky@gmail.com</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B50" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C50" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>44856.049735925924</v>
+      </c>
+      <c r="B51" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C51" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>44865.61133959491</v>
+      </c>
+      <c r="B52" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C52" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>44852.70488950232</v>
+      </c>
+      <c r="B53" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C53" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>44858.93477878472</v>
+      </c>
+      <c r="B54" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C54" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>44879.59653891204</v>
+      </c>
+      <c r="B55" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C55" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>44858.94780832176</v>
+      </c>
+      <c r="B56" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C56" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
         <v>44848.61460537037</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B14" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B57" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C57" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
         <v>44844.959875555556</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B15" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B58" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C58" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>44856.04752064815</v>
+      </c>
+      <c r="B59" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C59" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>44872.612667511574</v>
+      </c>
+      <c r="B60" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C60" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>44856.02752362269</v>
+      </c>
+      <c r="B61" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C61" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>44872.61409175926</v>
+      </c>
+      <c r="B62" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C62" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>44861.9145580787</v>
+      </c>
+      <c r="B63" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C63" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>44858.94720270833</v>
+      </c>
+      <c r="B64" t="str">
+        <v>nancycottet@gmail.com</v>
+      </c>
+      <c r="C64" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
         <v>44845.028311967595</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B16" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B65" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C65" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>44875.931046516205</v>
+      </c>
+      <c r="B66" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C66" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
         <v>44843.85371481482</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="B67" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C67" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>44862.91425594907</v>
+      </c>
+      <c r="B68" t="str">
         <v>selene92@gmail.com</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C68" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>44858.949210300925</v>
+      </c>
+      <c r="B69" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C69" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>44875.93005333333</v>
+      </c>
+      <c r="B70" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C70" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>44852.90992164352</v>
+      </c>
+      <c r="B71" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C71" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
         <v>44848.61517690972</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="B72" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C72" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>44844.95625930555</v>
+      </c>
+      <c r="B73" t="str">
         <v>valeriamatu@gmail.com</v>
       </c>
-      <c r="C18" s="1">
-        <v>44844.95625930555</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="C73" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>44843.844416342596</v>
+      </c>
+      <c r="B74" t="str">
         <v>valeriamatu@gmail.com</v>
       </c>
-      <c r="C19" s="1">
-        <v>44843.844416342596</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B20" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="C74" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>44866.98632476852</v>
+      </c>
+      <c r="B75" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C75" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>44856.04655402778</v>
+      </c>
+      <c r="B76" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C76" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>44856.05187225695</v>
+      </c>
+      <c r="B77" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C77" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
         <v>44848.616397777776</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B21" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B78" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C78" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>44872.619643287035</v>
+      </c>
+      <c r="B79" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C79" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>44879.5846349537</v>
+      </c>
+      <c r="B80" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C80" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>44856.038769583334</v>
+      </c>
+      <c r="B81" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C81" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>44872.01946765046</v>
+      </c>
+      <c r="B82" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C82" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
         <v>44845.0322565625</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B22" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B83" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C83" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
         <v>44844.95530311343</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B23" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B84" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C84" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
         <v>44843.86385158565</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B24" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B85" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C85" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>44862.91256239583</v>
+      </c>
+      <c r="B86" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C86" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
         <v>44848.61575341435</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="B87" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C87" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>44848.61415739583</v>
+      </c>
+      <c r="B88" t="str">
         <v>bsantillan@gmail.com</v>
       </c>
-      <c r="C25" s="1">
-        <v>44848.61415739583</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B26" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="C88" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>44856.03408957176</v>
+      </c>
+      <c r="B89" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C89" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
         <v>44845.91524957176</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B27" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B90" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C90" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>44858.94812275463</v>
+      </c>
+      <c r="B91" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C91" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>44866.93768483796</v>
+      </c>
+      <c r="B92" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C92" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>44872.02178902778</v>
+      </c>
+      <c r="B93" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C93" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>44856.01544146991</v>
+      </c>
+      <c r="B94" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C94" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>44862.91882326389</v>
+      </c>
+      <c r="B95" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C95" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>44862.912840833334</v>
+      </c>
+      <c r="B96" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C96" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>44856.01273548611</v>
+      </c>
+      <c r="B97" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C97" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>44872.02363827547</v>
+      </c>
+      <c r="B98" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C98" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>44875.87268083333</v>
+      </c>
+      <c r="B99" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C99" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>44871.90732204861</v>
+      </c>
+      <c r="B100" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C100" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>44854.92628707176</v>
+      </c>
+      <c r="B101" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C101" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>44854.921688229166</v>
+      </c>
+      <c r="B102" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C102" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>44866.97257365741</v>
+      </c>
+      <c r="B103" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C103" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
         <v>44848.59470472222</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B28" t="str">
+      <c r="B104" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C104" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>44872.5501409375</v>
+      </c>
+      <c r="B105" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C105" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>44872.024418946756</v>
+      </c>
+      <c r="B106" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C106" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>44843.85404803241</v>
+      </c>
+      <c r="B107" t="str">
         <v>selene92@gmail.com</v>
       </c>
-      <c r="C28" s="1">
-        <v>44843.85404803241</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B29" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="C107" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>44868.9046646412</v>
+      </c>
+      <c r="B108" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C108" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>44858.91776287037</v>
+      </c>
+      <c r="B109" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C109" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
         <v>44848.6054184375</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="B110" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C110" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>44856.02877474537</v>
+      </c>
+      <c r="B111" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C111" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>44856.0504365625</v>
+      </c>
+      <c r="B112" t="str">
         <v>matigravante@gmail.com</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C112" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
         <v>44843.86182377315</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B31" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B113" t="str">
+        <v>matigravante@gmail.com</v>
+      </c>
+      <c r="C113" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
         <v>44845.91757747685</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B32" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B114" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C114" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>44856.035843935184</v>
+      </c>
+      <c r="B115" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C115" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
         <v>44848.60147271991</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="B116" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C116" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>44843.865830104165</v>
+      </c>
+      <c r="B117" t="str">
         <v>bsantillan@gmail.com</v>
       </c>
-      <c r="C33" s="1">
-        <v>44843.865830104165</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="C117" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>44872.020771331016</v>
+      </c>
+      <c r="B118" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C118" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>44861.917812210646</v>
+      </c>
+      <c r="B119" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C119" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>44872.55270371528</v>
+      </c>
+      <c r="B120" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C120" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>44866.93711582176</v>
+      </c>
+      <c r="B121" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C121" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>44856.026571863425</v>
+      </c>
+      <c r="B122" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C122" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>44858.94002787037</v>
+      </c>
+      <c r="B123" t="str">
+        <v>valeriamatu@gmail.com</v>
+      </c>
+      <c r="C123" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>44848.61052375</v>
+      </c>
+      <c r="B124" t="str">
         <v>selene92@gmail.com</v>
       </c>
-      <c r="C34" s="1">
-        <v>44848.61052375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B35" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="C124" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
         <v>44845.92175821759</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="B125" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C125" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>44866.93865693287</v>
+      </c>
+      <c r="B126" t="str">
+        <v>stefimarco@gmail.com</v>
+      </c>
+      <c r="C126" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>44875.87482829861</v>
+      </c>
+      <c r="B127" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C127" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>44875.9335719213</v>
+      </c>
+      <c r="B128" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C128" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>44872.61702505787</v>
+      </c>
+      <c r="B129" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C129" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>44848.613981504626</v>
+      </c>
+      <c r="B130" t="str">
         <v>matigravante@gmail.com</v>
       </c>
-      <c r="C36" s="1">
-        <v>44848.613981504626</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>paciente</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C130" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>44852.70738020833</v>
+      </c>
+      <c r="B131" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C131" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>44845.03332180555</v>
+      </c>
+      <c r="B132" t="str">
         <v>matigravante@gmail.com</v>
       </c>
-      <c r="C37" s="1">
-        <v>44845.03332180555</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>especialista</v>
-      </c>
-      <c r="B38" t="str">
-        <v>achinsky@gmail.com</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="C132" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>44858.940437488425</v>
+      </c>
+      <c r="B133" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C133" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>44856.02371059028</v>
+      </c>
+      <c r="B134" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C134" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>44852.70488979167</v>
+      </c>
+      <c r="B135" t="str">
+        <v>bsantillan@gmail.com</v>
+      </c>
+      <c r="C135" t="str">
+        <v>paciente</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>44872.01408832176</v>
+      </c>
+      <c r="B136" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C136" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>44862.92106273148</v>
+      </c>
+      <c r="B137" t="str">
+        <v>selene92@gmail.com</v>
+      </c>
+      <c r="C137" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
         <v>44848.6101018287</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B39" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B138" t="str">
+        <v>achinsky@gmail.com</v>
+      </c>
+      <c r="C138" t="str">
+        <v>especialista</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
         <v>44848.59651552083</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>administrador</v>
-      </c>
-      <c r="B40" t="str">
-        <v>ale23989@gmail.com</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B139" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C139" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>44858.922337094904</v>
+      </c>
+      <c r="B140" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C140" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>44854.92613807871</v>
+      </c>
+      <c r="B141" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C141" t="str">
+        <v>administrador</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
         <v>44848.60721465278</v>
+      </c>
+      <c r="B142" t="str">
+        <v>ale23989@gmail.com</v>
+      </c>
+      <c r="C142" t="str">
+        <v>administrador</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C142"/>
   </ignoredErrors>
 </worksheet>
 </file>